--- a/KB-Sales-Section.xlsx
+++ b/KB-Sales-Section.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphbridges/Documents/GitHub/bkloud/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphbridges/Documents/GitHub/kb-ui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203B7AFA-B365-664A-999D-BA538C2DE25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755AD9B-5775-E042-BD12-33538F46B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{1309BF5C-51D5-B141-8D33-8468D8D227FB}"/>
+    <workbookView xWindow="40820" yWindow="500" windowWidth="33600" windowHeight="19160" activeTab="5" xr2:uid="{1309BF5C-51D5-B141-8D33-8468D8D227FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -248,6 +248,84 @@
   </si>
   <si>
     <t>Select All Checkbox</t>
+  </si>
+  <si>
+    <t>Add Form</t>
+  </si>
+  <si>
+    <t>Selling</t>
+  </si>
+  <si>
+    <t>Buying</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Informational</t>
+  </si>
+  <si>
+    <t>TAGS                       +</t>
+  </si>
+  <si>
+    <t>CATEGORIES          +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Search Form</t>
+  </si>
+  <si>
+    <t>Date Last Updated (mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Created By (User)</t>
+  </si>
+  <si>
+    <t>Use the link as an example:</t>
+  </si>
+  <si>
+    <t>https://pixinvent.com/demo/vuexy-vuejs-admin-dashboard-template/demo-4/apps/todo</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Created On (Non editable)</t>
+  </si>
+  <si>
+    <t>Created By (Not editable)</t>
+  </si>
+  <si>
+    <t>Last Updated (Non Editable)</t>
+  </si>
+  <si>
+    <t>Category (Dropdown)</t>
+  </si>
+  <si>
+    <t>Tag (Dropdown)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Update (Button)</t>
+  </si>
+  <si>
+    <t>Add (Button)</t>
   </si>
 </sst>
 </file>
@@ -293,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -503,11 +581,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -528,6 +630,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,22 +664,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F741AA40-B2D0-F84D-9706-9C15926778D3}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -917,15 +1042,15 @@
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="18" t="s">
         <v>38</v>
       </c>
@@ -935,28 +1060,28 @@
       <c r="L2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -986,11 +1111,11 @@
       <c r="I4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="16" t="s">
         <v>9</v>
       </c>
@@ -1024,11 +1149,11 @@
       <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="10"/>
       <c r="R5" s="5"/>
     </row>
@@ -1046,11 +1171,11 @@
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="10"/>
       <c r="R6" s="5"/>
     </row>
@@ -1068,11 +1193,11 @@
       <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="10"/>
       <c r="R7" s="5"/>
     </row>
@@ -1087,11 +1212,11 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="10"/>
       <c r="R8" s="5"/>
     </row>
@@ -1106,51 +1231,51 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="10"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="10"/>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="10"/>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="10"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="10"/>
       <c r="R13" s="5"/>
     </row>
@@ -1287,6 +1412,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
@@ -1294,12 +1425,6 @@
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1363,14 +1488,295 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD3D412-96AA-DA49-A999-59776D15A874}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>